--- a/Assignments/Assignment_9/User Story Specs_shelby_edit.xlsx
+++ b/Assignments/Assignment_9/User Story Specs_shelby_edit.xlsx
@@ -110,28 +110,28 @@
     <t xml:space="preserve">Shelby Jordan</t>
   </si>
   <si>
-    <t xml:space="preserve">Clearly identified areas to park and colors that most people are not colorblind to.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customizable colors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ability for a user to create a new area to park.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interface with google api and action listeners.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unmutable list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Color coded list to indicate which times are more crowded with people than others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ability to send that list to email, facebook, or other media sharing sites.</t>
+    <t xml:space="preserve">(1) Clearly identified areas to park. (2) Colors that most people are not colorblind to. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Legend (2) A contact us option.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Customizable colors. (2) The ability for users to update the accuracy of the predictions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) The ability for a user to create a new area to park. (2) The ability for users to make new walking paths.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Interface with google api. (2) Invisible interface on the map that has action listeners.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) A unmutable list. (2) The mouse should change from a pointer to a hand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Color coded list to indicate which times are more crowded with people than others. (2) Traffic indicators near parking areas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) The ability to send that list to email, facebook, or other media sharing sites. (2) The ablilty to change any output.</t>
   </si>
   <si>
     <t xml:space="preserve">Not Here 10-10-2019</t>
@@ -596,7 +596,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Assignments/Assignment_9/User Story Specs_shelby_edit.xlsx
+++ b/Assignments/Assignment_9/User Story Specs_shelby_edit.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessem1020\Documents\GitHub\CS3398-Kree-F2019\Assignments\Assignment_9\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC041C83-D1C4-4F0B-B7A5-0E95082FF091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,29 +25,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Big Big Huge Parking For To Make the Transport Of Self To and From The Classes And Parking Lots To For The Making Of Facilitation To Make Easy and Fun. Very Good. </t>
   </si>
   <si>
-    <t xml:space="preserve">List Team Members Here: Shelby Jordan, David Kim, Sam Pugh, Ben Kowacki, Jesse Munoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project User Stories and Functional Requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planning Poker Ratings for Story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional Components and Features of the Story</t>
+    <t>List Team Members Here: Shelby Jordan, David Kim, Sam Pugh, Ben Kowacki, Jesse Munoz</t>
+  </si>
+  <si>
+    <t>Project User Stories and Functional Requirements</t>
+  </si>
+  <si>
+    <t>Author(s)</t>
+  </si>
+  <si>
+    <t>Planning Poker Ratings for Story</t>
+  </si>
+  <si>
+    <t>Functional Components and Features of the Story</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -57,16 +62,15 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri (Body)"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Hi -&gt; More Interest)</t>
+      <t>(Hi -&gt; More Interest)</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -81,95 +85,115 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri (Body)"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Hi -&gt; More Difficult)</t>
+      <t>(Hi -&gt; More Difficult)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Must Have</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should Have</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could Have</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Won't Have</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qualities you want your stories to have…..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user, I would like to have the ability to identify my best parking option by color. 
+    <t>Must Have</t>
+  </si>
+  <si>
+    <t>Should Have</t>
+  </si>
+  <si>
+    <t>Could Have</t>
+  </si>
+  <si>
+    <t>Won't Have</t>
+  </si>
+  <si>
+    <t>Qualities you want your stories to have…..</t>
+  </si>
+  <si>
+    <t>As a user, I would like to have the ability to identify my best parking option by color. 
 As a user, I would like the ability to select a location on the map to park then have the website show me a list of times that the area I selected is likely to be available.</t>
   </si>
   <si>
-    <t xml:space="preserve">Shelby Jordan</t>
+    <t>Shelby Jordan</t>
   </si>
   <si>
     <t xml:space="preserve">(1) Clearly identified areas to park. (2) Colors that most people are not colorblind to. </t>
   </si>
   <si>
-    <t xml:space="preserve">(1) Legend (2) A contact us option.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1) Customizable colors. (2) The ability for users to update the accuracy of the predictions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1) The ability for a user to create a new area to park. (2) The ability for users to make new walking paths.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1) Interface with google api. (2) Invisible interface on the map that has action listeners.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1) A unmutable list. (2) The mouse should change from a pointer to a hand.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1) Color coded list to indicate which times are more crowded with people than others. (2) Traffic indicators near parking areas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1) The ability to send that list to email, facebook, or other media sharing sites. (2) The ablilty to change any output.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Here 10-10-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Kim</t>
+    <t>(1) Legend (2) A contact us option.</t>
+  </si>
+  <si>
+    <t>(1) Customizable colors. (2) The ability for users to update the accuracy of the predictions.</t>
+  </si>
+  <si>
+    <t>(1) The ability for a user to create a new area to park. (2) The ability for users to make new walking paths.</t>
+  </si>
+  <si>
+    <t>(1) Interface with google api. (2) Invisible interface on the map that has action listeners.</t>
+  </si>
+  <si>
+    <t>(1) A unmutable list. (2) The mouse should change from a pointer to a hand.</t>
+  </si>
+  <si>
+    <t>(1) Color coded list to indicate which times are more crowded with people than others. (2) Traffic indicators near parking areas.</t>
+  </si>
+  <si>
+    <t>(1) The ability to send that list to email, facebook, or other media sharing sites. (2) The ablilty to change any output.</t>
+  </si>
+  <si>
+    <t>Not Here 10-10-2019</t>
+  </si>
+  <si>
+    <t>David Kim</t>
   </si>
   <si>
     <t xml:space="preserve"> I as a simplistic style user, want to utilize some buttons on the webpage instead of text input to aid in the simplicity of the webpage.
 As a Student, I would like to know better paths to campus from these parking lots to make commuting between them easier.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sam Pugh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user looking to be able to tell apart parking garages, I would like the garages to have polygons over them where their color indicates who is allowed to park there.
+    <t>Sam Pugh</t>
+  </si>
+  <si>
+    <t>As a user looking to be able to tell apart parking garages, I would like the garages to have polygons over them where their color indicates who is allowed to park there.
 As a person looking for functionality, I would like to be able to get directions from one point to another so the website is useful.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ben Kownacki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user i would like an option to tell if there is motorcycle parking available.
-As a user i would like to be able to tell if the parking garage is full before driving to the garage.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesse Munoz</t>
+    <t>Ben Kownacki</t>
+  </si>
+  <si>
+    <t>Jesse Munoz</t>
+  </si>
+  <si>
+    <t>Way to show if there is motor cycle parking availabe.</t>
+  </si>
+  <si>
+    <t>A little motorcycle icon showing that the garage has parking.</t>
+  </si>
+  <si>
+    <t>A detailed outline of garage and where the parking is located.</t>
+  </si>
+  <si>
+    <t>This option should be seen for all garages and parking lots.</t>
+  </si>
+  <si>
+    <t>Ways to track cars going in and out of the parking garage.</t>
+  </si>
+  <si>
+    <t>A way to tell how many spots are left exactly so that you don’t see that its empty when in reality there is only one spot that could be taken right away.</t>
+  </si>
+  <si>
+    <t>A way to reserve a parking spot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user i would like an option to tell if there is motorcycle parking available.                                                                                                                                                                                                                    
+As a user i would like to be able to tell if the parking garage is full before driving to the garage.                                                                                                                                                                                                                                                                                                                            
+                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Way to show if there is any parking available.                                                                                                                                                                                                                                                                                                                                            </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -178,22 +202,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -201,7 +210,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -209,7 +218,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -220,7 +229,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -306,14 +314,14 @@
     </fill>
   </fills>
   <borders count="11">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF1F4E79"/>
       </left>
@@ -328,7 +336,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thick">
         <color rgb="FF1F4E79"/>
       </left>
@@ -343,14 +351,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF1F4E79"/>
       </left>
@@ -363,168 +375,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -583,106 +577,414 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF1F4E79"/>
       <rgbColor rgb="FF262626"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="49.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.83"/>
+    <col min="1" max="1" width="41.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" customWidth="1"/>
+    <col min="10" max="10" width="49.33203125" customWidth="1"/>
+    <col min="11" max="1025" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="J1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="22.05" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" s="9" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" s="10" customFormat="1" ht="16.05" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:10" ht="66" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="16">
         <v>34</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="16">
         <v>13</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -698,13 +1000,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="98" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:10" ht="97.95" customHeight="1">
+      <c r="A5" s="1"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="19" t="n">
+      <c r="C5" s="19">
         <v>13</v>
       </c>
-      <c r="D5" s="19" t="n">
+      <c r="D5" s="19">
         <v>13</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -720,8 +1022,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:10" ht="16.05" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -734,8 +1036,8 @@
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1"/>
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -744,17 +1046,17 @@
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" customFormat="false" ht="95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:10" ht="94.95" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="16">
         <v>34</v>
       </c>
-      <c r="D8" s="16" t="n">
+      <c r="D8" s="16">
         <v>34</v>
       </c>
       <c r="E8" s="17"/>
@@ -762,13 +1064,13 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" customFormat="false" ht="58" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:10" ht="58.05" customHeight="1">
+      <c r="A9" s="1"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="19" t="n">
+      <c r="C9" s="19">
         <v>34</v>
       </c>
-      <c r="D9" s="19" t="n">
+      <c r="D9" s="19">
         <v>34</v>
       </c>
       <c r="E9" s="20"/>
@@ -776,17 +1078,17 @@
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" customFormat="false" ht="109" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:10" ht="109.05" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="16">
         <v>89</v>
       </c>
-      <c r="D10" s="16" t="n">
+      <c r="D10" s="16">
         <v>34</v>
       </c>
       <c r="E10" s="17"/>
@@ -794,13 +1096,13 @@
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" customFormat="false" ht="62" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:10" ht="61.95" customHeight="1">
+      <c r="A11" s="1"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="19" t="n">
+      <c r="C11" s="19">
         <v>55</v>
       </c>
-      <c r="D11" s="19" t="n">
+      <c r="D11" s="19">
         <v>55</v>
       </c>
       <c r="E11" s="20"/>
@@ -808,57 +1110,68 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:10" ht="57" customHeight="1" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="16">
+        <v>89</v>
+      </c>
+      <c r="D12" s="16">
+        <v>13</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="16" t="n">
+      <c r="F12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="148.19999999999999" customHeight="1" thickBot="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19">
         <v>89</v>
       </c>
-      <c r="D12" s="16" t="n">
-        <v>13</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19" t="n">
-        <v>89</v>
-      </c>
-      <c r="D13" s="19" t="n">
+      <c r="D13" s="19">
         <v>55</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="E13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>